--- a/nbhd pop projection/output_using_12-31-23.xlsx
+++ b/nbhd pop projection/output_using_12-31-23.xlsx
@@ -6,13 +6,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Quarterly Completions 2023 Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Explanation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Under Construction" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Quarterly completions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Forecast %" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t xml:space="preserve">dssdds Quarterly Completions 2023 Q4</t>
+  </si>
   <si>
     <t xml:space="preserve">nbhd</t>
   </si>
@@ -105,6 +111,15 @@
   </si>
   <si>
     <t xml:space="preserve">West Roxbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lg_pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forecast_share</t>
   </si>
 </sst>
 </file>
@@ -440,19 +455,38 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -460,77 +494,429 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1</v>
+        <v>2053.953125</v>
       </c>
       <c r="C3" t="n">
-        <v>2.1</v>
+        <v>809.657552083333</v>
       </c>
       <c r="D3" t="n">
-        <v>2.8</v>
+        <v>90.3893229166667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.503097893432466</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.322180916976456</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.11276332094176</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>70.4545454545455</v>
+        <v>1067.19626168224</v>
       </c>
       <c r="C6" t="n">
-        <v>66.9318181818182</v>
+        <v>638.445482866044</v>
       </c>
       <c r="D6" t="n">
-        <v>17.6136363636364</v>
+        <v>97.3582554517134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>242.054644808743</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>122.098360655738</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>27.8469945355191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>101.333333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>101.333333333333</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.3333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>660.228786251343</v>
+      </c>
+      <c r="C9" t="n">
+        <v>440.152524167562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>156.618689581096</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1231.89285714286</v>
+      </c>
+      <c r="C10" t="n">
+        <v>570.877177700349</v>
+      </c>
+      <c r="D10" t="n">
+        <v>226.229965156794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>378.583333333333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>214.33024691358</v>
+      </c>
+      <c r="D11" t="n">
+        <v>56.0864197530864</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>906.192482915718</v>
+      </c>
+      <c r="C12" t="n">
+        <v>725.74715261959</v>
+      </c>
+      <c r="D12" t="n">
+        <v>109.060364464692</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1215.71428571429</v>
+      </c>
+      <c r="C13" t="n">
+        <v>246.428571428571</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32.8571428571429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>805.163742690058</v>
+      </c>
+      <c r="C15" t="n">
+        <v>576.886549707602</v>
+      </c>
+      <c r="D15" t="n">
+        <v>130.949707602339</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>795.950354609929</v>
+      </c>
+      <c r="C16" t="n">
+        <v>329.112056737589</v>
+      </c>
+      <c r="D16" t="n">
+        <v>135.937588652482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>317.331189710611</v>
+      </c>
+      <c r="C18" t="n">
+        <v>310.627009646302</v>
+      </c>
+      <c r="D18" t="n">
+        <v>67.0418006430868</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>183.048951048951</v>
+      </c>
+      <c r="C19" t="n">
+        <v>183.048951048951</v>
+      </c>
+      <c r="D19" t="n">
+        <v>42.9020979020979</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19.7407407407407</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.59259259259259</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.6666666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>410.407982261641</v>
+      </c>
+      <c r="C22" t="n">
+        <v>346.849223946785</v>
+      </c>
+      <c r="D22" t="n">
+        <v>61.7427937915743</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>818.03431372549</v>
+      </c>
+      <c r="C24" t="n">
+        <v>604.895098039216</v>
+      </c>
+      <c r="D24" t="n">
+        <v>108.070588235294</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>152.106761565836</v>
+      </c>
+      <c r="C26" t="n">
+        <v>101.761565836299</v>
+      </c>
+      <c r="D26" t="n">
+        <v>47.1316725978648</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>170.249291784703</v>
+      </c>
+      <c r="C28" t="n">
+        <v>169.121813031161</v>
+      </c>
+      <c r="D28" t="n">
+        <v>58.628895184136</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29" t="n">
+        <v>75.0217391304348</v>
+      </c>
+      <c r="C29" t="n">
+        <v>43.9782608695652</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.26980198019802</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.159240924092409</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.122937293729373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>10</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -538,35 +924,35 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>60.2068965517241</v>
+        <v>29.1351351351351</v>
       </c>
       <c r="C9" t="n">
-        <v>36.7931034482759</v>
+        <v>14.5675675675676</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5.2972972972973</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>7.68</v>
+        <v>194.102362204724</v>
       </c>
       <c r="C10" t="n">
-        <v>7.68</v>
+        <v>80.6811023622047</v>
       </c>
       <c r="D10" t="n">
-        <v>16.64</v>
+        <v>22.2165354330709</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -574,29 +960,35 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>12.9574468085106</v>
+        <v>9.02564102564103</v>
       </c>
       <c r="C12" t="n">
-        <v>12.9574468085106</v>
+        <v>9.02564102564103</v>
       </c>
       <c r="D12" t="n">
-        <v>3.08510638297872</v>
+        <v>3.94871794871795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -604,35 +996,35 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>1.5092936802974</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.966542750929368</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.338289962825279</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>53.1717171717172</v>
+        <v>26.8235294117647</v>
       </c>
       <c r="C16" t="n">
-        <v>41.8585858585859</v>
+        <v>22.3529411764706</v>
       </c>
       <c r="D16" t="n">
-        <v>16.969696969697</v>
+        <v>7.82352941176471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -640,7 +1032,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -649,40 +1041,40 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>17.265306122449</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>17.265306122449</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>12.469387755102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.503097893432466</v>
+        <v>1.07920792079208</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.322180916976456</v>
+        <v>0.636963696369637</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.11276332094176</v>
+        <v>0.491749174917492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -690,49 +1082,49 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7.82352941176471</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.82352941176471</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3.35294117647059</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>39.390243902439</v>
+        <v>15.5294117647059</v>
       </c>
       <c r="C23" t="n">
-        <v>39.390243902439</v>
+        <v>14.5588235294118</v>
       </c>
       <c r="D23" t="n">
-        <v>6.21951219512195</v>
+        <v>2.91176470588235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>17.5882352941176</v>
+        <v>121.777777777778</v>
       </c>
       <c r="C24" t="n">
-        <v>17.5882352941176</v>
+        <v>121.777777777778</v>
       </c>
       <c r="D24" t="n">
-        <v>3.82352941176471</v>
+        <v>30.4444444444444</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -740,21 +1132,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
-        <v>29.936170212766</v>
+        <v>88.5714285714286</v>
       </c>
       <c r="C26" t="n">
-        <v>27.7978723404255</v>
+        <v>88.5714285714286</v>
       </c>
       <c r="D26" t="n">
-        <v>9.26595744680851</v>
+        <v>132.857142857143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -762,16 +1154,392 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.66666666666667</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>636</v>
+      </c>
+      <c r="C2" t="n">
+        <v>680</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0294300139979274</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>134</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0038711673069823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.00190875721027792</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>772</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2328</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0801199030072972</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>410</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3217</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.101071804377642</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>266</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00538294814360589</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>980</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2501.16666666667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0882904258392162</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>656</v>
+      </c>
+      <c r="C10" t="n">
+        <v>380</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0208596455348238</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2570</v>
+      </c>
+      <c r="C11" t="n">
+        <v>816</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0618448054708218</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>564</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0403688345181342</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>530</v>
+      </c>
+      <c r="C13" t="n">
+        <v>115</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0111797319625956</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C14" t="n">
+        <v>453</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.036730244318458</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>388</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0114641369546334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>668</v>
+      </c>
+      <c r="C16" t="n">
+        <v>264</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0176084161195815</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>566</v>
+      </c>
+      <c r="C17" t="n">
+        <v>313</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0175585663385953</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>204</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0029952805453592</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n">
+        <v>790</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0115993707393812</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2458</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1709</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0865855807629224</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4224</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3448</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.163897102409911</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="n">
+        <v>358</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1856</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0600951819181285</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n">
+        <v>230</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1270</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0409013977925294</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="n">
-        <v>30.2105263157895</v>
-      </c>
-      <c r="C28" t="n">
-        <v>30.2105263157895</v>
-      </c>
-      <c r="D28" t="n">
-        <v>9.57894736842105</v>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>119</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00351606262268397</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="n">
+        <v>696</v>
+      </c>
+      <c r="C25" t="n">
+        <v>121</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0137943485610134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26" t="n">
+        <v>38</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3120</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0927437879680345</v>
       </c>
     </row>
   </sheetData>

--- a/nbhd pop projection/output_using_12-31-23.xlsx
+++ b/nbhd pop projection/output_using_12-31-23.xlsx
@@ -524,9 +524,15 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="B5" t="n">
+        <v>-2.99309909341031</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.88669884082811</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.46231563754454</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -680,9 +686,15 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -730,9 +742,15 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="B21" t="n">
+        <v>13.1696360110054</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.30147489964368</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.03418880519598</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -752,9 +770,15 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="B23" t="n">
+        <v>1002.70889894419</v>
+      </c>
+      <c r="C23" t="n">
+        <v>842.401206636501</v>
+      </c>
+      <c r="D23" t="n">
+        <v>238.889894419306</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -774,9 +798,15 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="B25" t="n">
+        <v>36.8151188489468</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23.2063957421857</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.68648234179784</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -796,9 +826,15 @@
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="B27" t="n">
+        <v>5.68688827747959</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.58472779757341</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.878399711334626</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
